--- a/biology/Zoologie/Cassique_du_Para/Cassique_du_Para.xlsx
+++ b/biology/Zoologie/Cassique_du_Para/Cassique_du_Para.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psarocolius bifasciatus
 Le Cassique du Para ou Cassique de l'Amazone (Psarocolius bifasciatus) est une espèce de passereau de la famille des Icteridae. Elle regroupe trois sous-espèces dont une est considérée comme une espèce distincte par certains auteurs. La sous-espèce Psarocolius bifasciatus bifasciatus, la sous-espèce type, qui se retrouve dans l’est du Brésil, donne son nom à l'espèce. La sous-espèce Psarocolius bifasciatus yuracares, qui se retrouve à partir du centre du Brésil et plus à l’ouest, porte le nom de Cassique bicolore lorsqu’elle est classée au rang d’espèce. La sous-espèce Psarocolius bifasciatus neivae, est vue comme un hybride des deux premières. Sa distribution est intercalée entre celles des deux autres sous-espèces.
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trois sous-espèces sont reconnues :
 P. b. bifasciatus (Spix, 1824) ;
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique du Para se retrouve dans Amazonie brésilienne au sud de l’Amazone, au nord de la Bolivie, dans l’ouest du Pérou et de l’Équateur, dans la moitié sud-est de la Colombie et au Venezuela. P. b. bifasciatus se retrouve dans l’extrême est du Brésil, à l’embouchure de l’Amazone. P. b. neivae s’observe plus à l’ouest jusqu’au Rio Tapajós environ. P. b. yuracares occupe le reste de la distribution.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">P. b. yuracares habite les forêts tropicales de la terra firme dans les basse-terres. Contrairement à P. b. bifasciatus, il évite les varzeas.
 </t>
@@ -607,7 +625,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique du Para s’observe généralement seul ou en petit groupe, se nourrissant dans la canopée, parfois en compagnie d’autres espèces comme le Cassique vert. Le Cassique du Para est polygyne.
 </t>
